--- a/03_tldr/results.xlsx
+++ b/03_tldr/results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,23 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbeit\99_opencampus\06_Kurse\15_NLP\GPT-2\03_tldr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2F6BE6AB-A218-41DA-9BCA-4FCC6DF01051}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42B561E-C97F-441C-866D-7E5BD8B27718}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="2" r:id="rId1"/>
     <sheet name="Steffen" sheetId="1" r:id="rId2"/>
     <sheet name="Jonas" sheetId="4" r:id="rId3"/>
-    <sheet name="Atual" sheetId="5" r:id="rId4"/>
+    <sheet name="Atul" sheetId="5" r:id="rId4"/>
     <sheet name="Stefan" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="177">
   <si>
     <t>row identifier</t>
   </si>
@@ -494,25 +505,73 @@
     <t>GPT-2 with Full Text Fine-Tuning FS</t>
   </si>
   <si>
-    <t>M1_rating</t>
-  </si>
-  <si>
-    <t>M2_rating</t>
-  </si>
-  <si>
-    <t>M3_rating</t>
-  </si>
-  <si>
-    <t>M4_rating</t>
-  </si>
-  <si>
-    <t>M5_rating</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>GPT-3 Without Fine-Tuning FS</t>
+  </si>
+  <si>
+    <t>GPT-3 Without Fine-Tuning OS</t>
+  </si>
+  <si>
+    <t>M1A_rating</t>
+  </si>
+  <si>
+    <t>M1B_rating</t>
+  </si>
+  <si>
+    <t>M2A_rating</t>
+  </si>
+  <si>
+    <t>M2B_rating</t>
+  </si>
+  <si>
+    <t>M3A_rating</t>
+  </si>
+  <si>
+    <t>M3B_rating</t>
+  </si>
+  <si>
+    <t>Climate change predictions are confirmed by the collective change in distribution of species, and the change in timing of biological events.</t>
+  </si>
+  <si>
+    <t>Greenhouse gas emissions have significantly altered global climate, and will continue to do so in the future. Increases in the frequency, duration, and/or severity of drought and heat stress associated with climate change could fundamentally alter the composition, structure, and bio</t>
+  </si>
+  <si>
+    <t>Forest-atmosphere feedbacks are significant and complex. Interdisciplinary science that integrates knowledge of these feedbacks with the impacts of global change is needed to identify and understand as yet unexplored feedbacks in the Earth system and potential for forests to mitigate</t>
+  </si>
+  <si>
+    <t>Climate change predictions are confirmed by research that integrates knowledge of the many interacting climate services of forests with the impacts of global change.</t>
+  </si>
+  <si>
+    <t>The world's forests influence climate through physical, chemical, and biological processes that affect planetary energetics, the hydrologic cycle, and atmospheric composition. These complex and nonlinear forest-atmosphere interactions can dampen or amplify anthropogenic climate</t>
+  </si>
+  <si>
+    <t>The forest-atmosphere feedback from climate change can dampen or amplify anthropogenic climate change.</t>
+  </si>
+  <si>
+    <t>Climate change predictions are confirmed by the collective change in distribution of species, and the shift in biological events.</t>
+  </si>
+  <si>
+    <t>The paper summarizes the current knowledge about the impact of livestock sector on climate change. The main sources of greenhouse gas (GHG) emissions from livestock are described and the contribution of livestock sector to the global GHG emissions is presented on the basis of the</t>
+  </si>
+  <si>
+    <t>The paper summarizes the current knowledge about the impact of livestock sector on climate change. The main sources of greenhouse gas (GHG) emissions from livestock are described and the contribution of livestock sector to the global GHG emissions is presented on the basis of a</t>
+  </si>
+  <si>
+    <t>Feeding a growing global population in a changing climate presents a significant challenge to society. The projected yields of crops under a range of agricultural and climatic scenarios are needed to assess food security prospects. Previous meta-analyses have summarized climate change impacts and</t>
+  </si>
+  <si>
+    <t>The effects of climate change on biodiversity are increasingly well documented, and many methods have been developed to assess species' vulnerability to climatic changes, both ongoing and projected in the coming decades. To minimize global biodiversity losses, conservationists need to identify those species</t>
+  </si>
+  <si>
+    <t>Causal attribution of recent biological trends to climate change is complicated because non-climatic influences dominate local, short-term biological changes. Any underlying signal from climate change is likely to be revealed by analyses that seek systematic trends across diverse species and geographic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -990,8 +1049,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1346,10 +1408,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -1884,702 +1946,1090 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
         <v>157</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>158</v>
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" t="s">
         <v>155</v>
       </c>
-      <c r="K1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="I4">
+      <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>22</v>
       </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5">
-        <v>2</v>
+      <c r="C5" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="I5">
+      <c r="K5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>28</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
       <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="E6">
+      <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>32</v>
       </c>
-      <c r="G6">
+      <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>33</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
         <v>34</v>
       </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="E7">
+      <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>38</v>
       </c>
-      <c r="G7">
+      <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>39</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
         <v>40</v>
       </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
       <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
         <v>43</v>
       </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
         <v>44</v>
       </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
         <v>45</v>
       </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" s="1">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
         <v>46</v>
       </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
       <c r="B9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
         <v>50</v>
       </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
         <v>51</v>
       </c>
-      <c r="I9">
+      <c r="K9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>52</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
       <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
         <v>55</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
         <v>56</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>57</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
         <v>58</v>
       </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
       <c r="B11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
         <v>61</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
         <v>62</v>
       </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
         <v>63</v>
       </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" s="1">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
         <v>64</v>
       </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
       <c r="B12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" t="s">
         <v>66</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
         <v>67</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
         <v>68</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
         <v>69</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
       <c r="B13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" t="s">
         <v>72</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
         <v>73</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
         <v>74</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
         <v>75</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
       <c r="B14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" t="s">
         <v>78</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
         <v>79</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
         <v>80</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
         <v>81</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
       <c r="B15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" t="s">
         <v>84</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
         <v>85</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
         <v>86</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
         <v>87</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>89</v>
       </c>
       <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" t="s">
         <v>90</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
         <v>91</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
         <v>92</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
         <v>93</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
       <c r="B17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" t="s">
         <v>96</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
         <v>97</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
         <v>98</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
         <v>99</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>101</v>
       </c>
       <c r="B18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" t="s">
         <v>102</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
         <v>103</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
         <v>104</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
         <v>105</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>107</v>
       </c>
       <c r="B19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" t="s">
         <v>108</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
         <v>109</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
         <v>110</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" s="1">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
         <v>111</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>113</v>
       </c>
       <c r="B20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" t="s">
         <v>114</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
         <v>115</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
         <v>116</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
         <v>117</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>119</v>
       </c>
       <c r="B21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" t="s">
         <v>120</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
         <v>121</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
         <v>122</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
         <v>123</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>125</v>
       </c>
       <c r="B22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" t="s">
         <v>126</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
         <v>127</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
         <v>128</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
         <v>129</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>131</v>
       </c>
       <c r="B23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" t="s">
         <v>132</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
         <v>133</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
         <v>134</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
+      <c r="J23" t="s">
         <v>135</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>137</v>
       </c>
       <c r="B24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" t="s">
         <v>138</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
         <v>139</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
         <v>140</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
         <v>141</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>143</v>
       </c>
       <c r="B25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" t="s">
         <v>144</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
         <v>145</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25" t="s">
         <v>146</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" s="1">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
         <v>147</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>149</v>
       </c>
       <c r="B26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" t="s">
         <v>150</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
         <v>151</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
         <v>152</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
         <v>153</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
         <v>154</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2588,701 +3038,1157 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1" customWidth="1"/>
+    <col min="259" max="259" width="19.140625" customWidth="1"/>
+    <col min="515" max="515" width="19.140625" customWidth="1"/>
+    <col min="771" max="771" width="19.140625" customWidth="1"/>
+    <col min="1027" max="1027" width="19.140625" customWidth="1"/>
+    <col min="1283" max="1283" width="19.140625" customWidth="1"/>
+    <col min="1539" max="1539" width="19.140625" customWidth="1"/>
+    <col min="1795" max="1795" width="19.140625" customWidth="1"/>
+    <col min="2051" max="2051" width="19.140625" customWidth="1"/>
+    <col min="2307" max="2307" width="19.140625" customWidth="1"/>
+    <col min="2563" max="2563" width="19.140625" customWidth="1"/>
+    <col min="2819" max="2819" width="19.140625" customWidth="1"/>
+    <col min="3075" max="3075" width="19.140625" customWidth="1"/>
+    <col min="3331" max="3331" width="19.140625" customWidth="1"/>
+    <col min="3587" max="3587" width="19.140625" customWidth="1"/>
+    <col min="3843" max="3843" width="19.140625" customWidth="1"/>
+    <col min="4099" max="4099" width="19.140625" customWidth="1"/>
+    <col min="4355" max="4355" width="19.140625" customWidth="1"/>
+    <col min="4611" max="4611" width="19.140625" customWidth="1"/>
+    <col min="4867" max="4867" width="19.140625" customWidth="1"/>
+    <col min="5123" max="5123" width="19.140625" customWidth="1"/>
+    <col min="5379" max="5379" width="19.140625" customWidth="1"/>
+    <col min="5635" max="5635" width="19.140625" customWidth="1"/>
+    <col min="5891" max="5891" width="19.140625" customWidth="1"/>
+    <col min="6147" max="6147" width="19.140625" customWidth="1"/>
+    <col min="6403" max="6403" width="19.140625" customWidth="1"/>
+    <col min="6659" max="6659" width="19.140625" customWidth="1"/>
+    <col min="6915" max="6915" width="19.140625" customWidth="1"/>
+    <col min="7171" max="7171" width="19.140625" customWidth="1"/>
+    <col min="7427" max="7427" width="19.140625" customWidth="1"/>
+    <col min="7683" max="7683" width="19.140625" customWidth="1"/>
+    <col min="7939" max="7939" width="19.140625" customWidth="1"/>
+    <col min="8195" max="8195" width="19.140625" customWidth="1"/>
+    <col min="8451" max="8451" width="19.140625" customWidth="1"/>
+    <col min="8707" max="8707" width="19.140625" customWidth="1"/>
+    <col min="8963" max="8963" width="19.140625" customWidth="1"/>
+    <col min="9219" max="9219" width="19.140625" customWidth="1"/>
+    <col min="9475" max="9475" width="19.140625" customWidth="1"/>
+    <col min="9731" max="9731" width="19.140625" customWidth="1"/>
+    <col min="9987" max="9987" width="19.140625" customWidth="1"/>
+    <col min="10243" max="10243" width="19.140625" customWidth="1"/>
+    <col min="10499" max="10499" width="19.140625" customWidth="1"/>
+    <col min="10755" max="10755" width="19.140625" customWidth="1"/>
+    <col min="11011" max="11011" width="19.140625" customWidth="1"/>
+    <col min="11267" max="11267" width="19.140625" customWidth="1"/>
+    <col min="11523" max="11523" width="19.140625" customWidth="1"/>
+    <col min="11779" max="11779" width="19.140625" customWidth="1"/>
+    <col min="12035" max="12035" width="19.140625" customWidth="1"/>
+    <col min="12291" max="12291" width="19.140625" customWidth="1"/>
+    <col min="12547" max="12547" width="19.140625" customWidth="1"/>
+    <col min="12803" max="12803" width="19.140625" customWidth="1"/>
+    <col min="13059" max="13059" width="19.140625" customWidth="1"/>
+    <col min="13315" max="13315" width="19.140625" customWidth="1"/>
+    <col min="13571" max="13571" width="19.140625" customWidth="1"/>
+    <col min="13827" max="13827" width="19.140625" customWidth="1"/>
+    <col min="14083" max="14083" width="19.140625" customWidth="1"/>
+    <col min="14339" max="14339" width="19.140625" customWidth="1"/>
+    <col min="14595" max="14595" width="19.140625" customWidth="1"/>
+    <col min="14851" max="14851" width="19.140625" customWidth="1"/>
+    <col min="15107" max="15107" width="19.140625" customWidth="1"/>
+    <col min="15363" max="15363" width="19.140625" customWidth="1"/>
+    <col min="15619" max="15619" width="19.140625" customWidth="1"/>
+    <col min="15875" max="15875" width="19.140625" customWidth="1"/>
+    <col min="16131" max="16131" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
         <v>157</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>158</v>
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" t="s">
         <v>155</v>
       </c>
-      <c r="K1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" s="1">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="I4">
+      <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>22</v>
       </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5">
-        <v>2</v>
+      <c r="C5" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
       <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>32</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>33</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
         <v>34</v>
       </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
         <v>38</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>39</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
         <v>40</v>
       </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
       <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>43</v>
       </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
         <v>44</v>
       </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
         <v>45</v>
       </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
         <v>46</v>
       </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
       <c r="B9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>50</v>
       </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>51</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>52</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
       <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
         <v>55</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
         <v>56</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>57</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
         <v>58</v>
       </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
       <c r="B11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>61</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
         <v>62</v>
       </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>63</v>
       </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
         <v>64</v>
       </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
       <c r="B12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" t="s">
         <v>66</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
         <v>67</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
         <v>68</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
         <v>69</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
       <c r="B13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" t="s">
         <v>72</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
         <v>73</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
         <v>74</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
         <v>75</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
       <c r="B14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" t="s">
         <v>78</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
         <v>79</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
         <v>80</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
         <v>81</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
       <c r="B15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" t="s">
         <v>84</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
         <v>85</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
         <v>86</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
         <v>87</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>89</v>
       </c>
       <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" t="s">
         <v>90</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
         <v>91</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
         <v>92</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
         <v>93</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
       <c r="B17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" t="s">
         <v>96</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
         <v>97</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
         <v>98</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
         <v>99</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>101</v>
       </c>
       <c r="B18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" t="s">
         <v>102</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
         <v>103</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
         <v>104</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
         <v>105</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>107</v>
       </c>
       <c r="B19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" t="s">
         <v>108</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
         <v>109</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
         <v>110</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
         <v>111</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>113</v>
       </c>
       <c r="B20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" t="s">
         <v>114</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
         <v>115</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
         <v>116</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
         <v>117</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>119</v>
       </c>
       <c r="B21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" t="s">
         <v>120</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
         <v>121</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
         <v>122</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
         <v>123</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>125</v>
       </c>
       <c r="B22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" t="s">
         <v>126</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
         <v>127</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
         <v>128</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
         <v>129</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>131</v>
       </c>
       <c r="B23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" t="s">
         <v>132</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
         <v>133</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
         <v>134</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
         <v>135</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>137</v>
       </c>
       <c r="B24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" t="s">
         <v>138</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
         <v>139</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
         <v>140</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
         <v>141</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>143</v>
       </c>
       <c r="B25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" t="s">
         <v>144</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
         <v>145</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
         <v>146</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" s="1">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
         <v>147</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>149</v>
       </c>
       <c r="B26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" t="s">
         <v>150</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
         <v>151</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
         <v>152</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
         <v>153</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
         <v>154</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3291,27 +4197,2181 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" t="s">
+        <v>94</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>106</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" t="s">
+        <v>112</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L21" t="s">
+        <v>124</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H22" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J22" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L22" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H23" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J23" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L23" t="s">
+        <v>136</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J24" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L24" t="s">
+        <v>142</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J25" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L25" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J26" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" t="s">
+        <v>154</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" t="s">
+        <v>94</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>106</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" t="s">
+        <v>112</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L21" t="s">
+        <v>124</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H22" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J22" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L22" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H23" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J23" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L23" t="s">
+        <v>136</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J24" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L24" t="s">
+        <v>142</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J25" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L25" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J26" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" t="s">
+        <v>154</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/03_tldr/results.xlsx
+++ b/03_tldr/results.xlsx
@@ -1,33 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbeit\99_opencampus\06_Kurse\15_NLP\GPT-2\03_tldr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42B561E-C97F-441C-866D-7E5BD8B27718}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F34C930E-E054-4EDA-BA2B-E6F534B22A0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="2" r:id="rId1"/>
-    <sheet name="Steffen" sheetId="1" r:id="rId2"/>
-    <sheet name="Jonas" sheetId="4" r:id="rId3"/>
-    <sheet name="Atul" sheetId="5" r:id="rId4"/>
-    <sheet name="Stefan" sheetId="6" r:id="rId5"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Steffen" sheetId="2" r:id="rId2"/>
+    <sheet name="Jonas" sheetId="3" r:id="rId3"/>
+    <sheet name="Atul" sheetId="4" r:id="rId4"/>
+    <sheet name="Stefan" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="177">
   <si>
     <t>row identifier</t>
   </si>
@@ -52,6 +49,9 @@
     <t>GPT-2 with Full Text Fine-Tuning OS</t>
   </si>
   <si>
+    <t>GPT-2 with Full Text Fine-Tuning FS</t>
+  </si>
+  <si>
     <t>Test Abstract 1 - Generation 1</t>
   </si>
   <si>
@@ -502,37 +502,34 @@
     <t>The paper is structured as follows: 1. The paper is presented as a conceptual summary of the proposed economic models, using the same basic framework. 2. The paper is presented as a summary of the proposed empirical data, using the same basic framework. 3. The paper is presented as a conceptual summary of the proposed empirical data, using the same basic framework. 4. The paper is presented as a conceptual summary of the proposed empirical data, using the same basic framework. 5. The paper is presente</t>
   </si>
   <si>
-    <t>GPT-2 with Full Text Fine-Tuning FS</t>
+    <t>GPT-3 Without Fine-Tuning OS</t>
+  </si>
+  <si>
+    <t>M1A_rating</t>
+  </si>
+  <si>
+    <t>GPT-3 Without Fine-Tuning FS</t>
+  </si>
+  <si>
+    <t>M1B_rating</t>
+  </si>
+  <si>
+    <t>M2A_rating</t>
+  </si>
+  <si>
+    <t>M2B_rating</t>
+  </si>
+  <si>
+    <t>M3A_rating</t>
+  </si>
+  <si>
+    <t>M3B_rating</t>
+  </si>
+  <si>
+    <t>Climate change predictions are confirmed by the collective change in distribution of species, and the change in timing of biological events.</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>GPT-3 Without Fine-Tuning FS</t>
-  </si>
-  <si>
-    <t>GPT-3 Without Fine-Tuning OS</t>
-  </si>
-  <si>
-    <t>M1A_rating</t>
-  </si>
-  <si>
-    <t>M1B_rating</t>
-  </si>
-  <si>
-    <t>M2A_rating</t>
-  </si>
-  <si>
-    <t>M2B_rating</t>
-  </si>
-  <si>
-    <t>M3A_rating</t>
-  </si>
-  <si>
-    <t>M3B_rating</t>
-  </si>
-  <si>
-    <t>Climate change predictions are confirmed by the collective change in distribution of species, and the change in timing of biological events.</t>
   </si>
   <si>
     <t>Greenhouse gas emissions have significantly altered global climate, and will continue to do so in the future. Increases in the frequency, duration, and/or severity of drought and heat stress associated with climate change could fundamentally alter the composition, structure, and bio</t>
@@ -571,325 +568,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -897,157 +592,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1055,49 +602,8 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1397,30 +903,88 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1437,1617 +1001,1623 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" t="s">
-        <v>153</v>
-      </c>
-      <c r="F26" t="s">
-        <v>154</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1"/>
-    <col min="9" max="9" width="11.42578125" style="1"/>
-    <col min="11" max="11" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L1" t="s">
-        <v>155</v>
-      </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>165</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="1">
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="1">
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>167</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="1">
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>168</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8" s="1">
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="1">
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>169</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I9" s="1">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>170</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M10" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
         <v>171</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I11" s="1">
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K11" s="1">
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>172</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M12" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
         <v>172</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" s="1">
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" s="1">
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K13" s="1">
         <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M13" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
         <v>173</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I14" s="1">
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="1">
         <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
         <v>172</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15" s="1">
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I15" s="1">
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
         <v>172</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" s="1">
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E17" s="1">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I18" s="1">
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G19" s="1">
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I19" s="1">
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M20" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
         <v>174</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E21" s="1">
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M21" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M22" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I23" s="1">
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
         <v>175</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M24" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s">
         <v>176</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G25" s="1">
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I25" s="1">
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I26" s="1">
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
@@ -3060,1369 +2630,1309 @@
     <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" style="1" customWidth="1"/>
-    <col min="259" max="259" width="19.140625" customWidth="1"/>
-    <col min="515" max="515" width="19.140625" customWidth="1"/>
-    <col min="771" max="771" width="19.140625" customWidth="1"/>
-    <col min="1027" max="1027" width="19.140625" customWidth="1"/>
-    <col min="1283" max="1283" width="19.140625" customWidth="1"/>
-    <col min="1539" max="1539" width="19.140625" customWidth="1"/>
-    <col min="1795" max="1795" width="19.140625" customWidth="1"/>
-    <col min="2051" max="2051" width="19.140625" customWidth="1"/>
-    <col min="2307" max="2307" width="19.140625" customWidth="1"/>
-    <col min="2563" max="2563" width="19.140625" customWidth="1"/>
-    <col min="2819" max="2819" width="19.140625" customWidth="1"/>
-    <col min="3075" max="3075" width="19.140625" customWidth="1"/>
-    <col min="3331" max="3331" width="19.140625" customWidth="1"/>
-    <col min="3587" max="3587" width="19.140625" customWidth="1"/>
-    <col min="3843" max="3843" width="19.140625" customWidth="1"/>
-    <col min="4099" max="4099" width="19.140625" customWidth="1"/>
-    <col min="4355" max="4355" width="19.140625" customWidth="1"/>
-    <col min="4611" max="4611" width="19.140625" customWidth="1"/>
-    <col min="4867" max="4867" width="19.140625" customWidth="1"/>
-    <col min="5123" max="5123" width="19.140625" customWidth="1"/>
-    <col min="5379" max="5379" width="19.140625" customWidth="1"/>
-    <col min="5635" max="5635" width="19.140625" customWidth="1"/>
-    <col min="5891" max="5891" width="19.140625" customWidth="1"/>
-    <col min="6147" max="6147" width="19.140625" customWidth="1"/>
-    <col min="6403" max="6403" width="19.140625" customWidth="1"/>
-    <col min="6659" max="6659" width="19.140625" customWidth="1"/>
-    <col min="6915" max="6915" width="19.140625" customWidth="1"/>
-    <col min="7171" max="7171" width="19.140625" customWidth="1"/>
-    <col min="7427" max="7427" width="19.140625" customWidth="1"/>
-    <col min="7683" max="7683" width="19.140625" customWidth="1"/>
-    <col min="7939" max="7939" width="19.140625" customWidth="1"/>
-    <col min="8195" max="8195" width="19.140625" customWidth="1"/>
-    <col min="8451" max="8451" width="19.140625" customWidth="1"/>
-    <col min="8707" max="8707" width="19.140625" customWidth="1"/>
-    <col min="8963" max="8963" width="19.140625" customWidth="1"/>
-    <col min="9219" max="9219" width="19.140625" customWidth="1"/>
-    <col min="9475" max="9475" width="19.140625" customWidth="1"/>
-    <col min="9731" max="9731" width="19.140625" customWidth="1"/>
-    <col min="9987" max="9987" width="19.140625" customWidth="1"/>
-    <col min="10243" max="10243" width="19.140625" customWidth="1"/>
-    <col min="10499" max="10499" width="19.140625" customWidth="1"/>
-    <col min="10755" max="10755" width="19.140625" customWidth="1"/>
-    <col min="11011" max="11011" width="19.140625" customWidth="1"/>
-    <col min="11267" max="11267" width="19.140625" customWidth="1"/>
-    <col min="11523" max="11523" width="19.140625" customWidth="1"/>
-    <col min="11779" max="11779" width="19.140625" customWidth="1"/>
-    <col min="12035" max="12035" width="19.140625" customWidth="1"/>
-    <col min="12291" max="12291" width="19.140625" customWidth="1"/>
-    <col min="12547" max="12547" width="19.140625" customWidth="1"/>
-    <col min="12803" max="12803" width="19.140625" customWidth="1"/>
-    <col min="13059" max="13059" width="19.140625" customWidth="1"/>
-    <col min="13315" max="13315" width="19.140625" customWidth="1"/>
-    <col min="13571" max="13571" width="19.140625" customWidth="1"/>
-    <col min="13827" max="13827" width="19.140625" customWidth="1"/>
-    <col min="14083" max="14083" width="19.140625" customWidth="1"/>
-    <col min="14339" max="14339" width="19.140625" customWidth="1"/>
-    <col min="14595" max="14595" width="19.140625" customWidth="1"/>
-    <col min="14851" max="14851" width="19.140625" customWidth="1"/>
-    <col min="15107" max="15107" width="19.140625" customWidth="1"/>
-    <col min="15363" max="15363" width="19.140625" customWidth="1"/>
-    <col min="15619" max="15619" width="19.140625" customWidth="1"/>
-    <col min="15875" max="15875" width="19.140625" customWidth="1"/>
-    <col min="16131" max="16131" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L1" t="s">
-        <v>155</v>
-      </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>156</v>
+      <c r="C2" s="1">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="1">
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M2" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
       <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1">
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>156</v>
+      <c r="C6" s="1">
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="1">
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>156</v>
+      <c r="C7" s="1">
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>156</v>
+      <c r="C8" s="1">
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>156</v>
+      <c r="C9" s="1">
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>156</v>
+      <c r="C10" s="1">
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>156</v>
+      <c r="C11" s="1">
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>156</v>
+      <c r="C12" s="1">
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I12" s="1">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12" s="1">
         <v>2</v>
       </c>
       <c r="L12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M12" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>156</v>
+      <c r="C13" s="1">
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" s="1">
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" s="1">
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K13" s="1">
         <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M13" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>156</v>
+      <c r="C14" s="1">
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I14" s="1">
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="1">
         <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>156</v>
+      <c r="C15" s="1">
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15" s="1">
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I15" s="1">
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>156</v>
+      <c r="C16" s="1">
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" s="1">
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>156</v>
+      <c r="C21" s="1">
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>156</v>
+      <c r="C24" s="1">
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>156</v>
+      <c r="C25" s="1">
+        <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G25" s="1">
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I25" s="1">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I26" s="1">
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="11.42578125" style="1"/>
-    <col min="9" max="9" width="11.42578125" style="1"/>
-    <col min="11" max="11" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L1" t="s">
-        <v>155</v>
-      </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>165</v>
-      </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>166</v>
@@ -4431,39 +3941,39 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>167</v>
@@ -4472,39 +3982,39 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>168</v>
@@ -4513,39 +4023,39 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>169</v>
@@ -4554,39 +4064,39 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>170</v>
@@ -4595,39 +4105,39 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
         <v>171</v>
@@ -4636,39 +4146,39 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>172</v>
@@ -4677,39 +4187,39 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
         <v>172</v>
@@ -4718,39 +4228,39 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" s="1">
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
         <v>173</v>
@@ -4759,39 +4269,39 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
         <v>172</v>
@@ -4800,39 +4310,39 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
         <v>172</v>
@@ -4841,203 +4351,203 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
         <v>174</v>
@@ -5046,121 +4556,121 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
         <v>175</v>
@@ -5169,39 +4679,39 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s">
         <v>176</v>
@@ -5210,1168 +4720,1174 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="11.42578125" style="1"/>
-    <col min="9" max="9" width="11.42578125" style="1"/>
-    <col min="11" max="11" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L1" t="s">
-        <v>155</v>
-      </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>156</v>
+      <c r="C2" s="1">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>156</v>
+        <v>8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>156</v>
+        <v>9</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>156</v>
+        <v>10</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
       <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>156</v>
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>156</v>
+        <v>26</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>156</v>
+        <v>27</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>156</v>
+        <v>28</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>156</v>
+      <c r="C6" s="1">
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>156</v>
+        <v>31</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>156</v>
+        <v>32</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>156</v>
+        <v>33</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>156</v>
+        <v>34</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>156</v>
+      <c r="C7" s="1">
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>156</v>
+        <v>37</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>156</v>
+        <v>38</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>156</v>
+        <v>39</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>156</v>
+        <v>40</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>156</v>
+      <c r="C8" s="1">
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>156</v>
+        <v>43</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>156</v>
+        <v>44</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>156</v>
+        <v>45</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>156</v>
+        <v>46</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>156</v>
+      <c r="C9" s="1">
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>156</v>
+        <v>49</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>156</v>
+        <v>50</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>156</v>
+        <v>51</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>156</v>
+        <v>52</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>156</v>
+      <c r="C10" s="1">
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>156</v>
+        <v>55</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>156</v>
+        <v>56</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>156</v>
+        <v>57</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>156</v>
+        <v>58</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>156</v>
+      <c r="C11" s="1">
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>156</v>
+        <v>61</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>156</v>
+        <v>62</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>156</v>
+        <v>63</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>156</v>
+        <v>64</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>156</v>
+      <c r="C12" s="1">
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>156</v>
+        <v>67</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>156</v>
+        <v>68</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>156</v>
+        <v>69</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>156</v>
+        <v>70</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>156</v>
+      <c r="C13" s="1">
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>156</v>
+        <v>73</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>156</v>
+        <v>74</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>156</v>
+        <v>75</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>156</v>
+        <v>76</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="M13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>156</v>
+      <c r="C14" s="1">
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>156</v>
+        <v>79</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>156</v>
+        <v>80</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>156</v>
+        <v>81</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>156</v>
+        <v>82</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>82</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>156</v>
+      <c r="C15" s="1">
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>156</v>
+        <v>85</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>156</v>
+        <v>86</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>156</v>
+        <v>87</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>156</v>
+        <v>88</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
       </c>
       <c r="L15" t="s">
-        <v>88</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>156</v>
+      <c r="C16" s="1">
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>156</v>
+        <v>91</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>156</v>
+        <v>92</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>156</v>
+        <v>93</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>93</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>156</v>
+        <v>94</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>156</v>
+        <v>97</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>156</v>
+        <v>98</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>156</v>
+        <v>99</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>99</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>156</v>
+        <v>100</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>100</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>156</v>
+        <v>103</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>156</v>
+        <v>104</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>156</v>
+        <v>105</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>156</v>
+        <v>106</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>106</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>156</v>
+        <v>109</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>156</v>
+        <v>110</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>156</v>
+        <v>111</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>156</v>
+        <v>112</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>156</v>
+        <v>115</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>156</v>
+        <v>117</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>156</v>
+        <v>118</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>156</v>
+      <c r="C21" s="1">
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>156</v>
+        <v>121</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>156</v>
+        <v>122</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>122</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>156</v>
+        <v>123</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>123</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>124</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="M21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>156</v>
+        <v>127</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>156</v>
+        <v>128</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>128</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>156</v>
+        <v>129</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>156</v>
+        <v>130</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>130</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>156</v>
+        <v>133</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>156</v>
+        <v>134</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>156</v>
+        <v>135</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>135</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>156</v>
+        <v>136</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>136</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>156</v>
+      <c r="C24" s="1">
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>141</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>142</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="M24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>156</v>
+      <c r="C25" s="1">
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>146</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>147</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>148</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>151</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>152</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>153</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>154</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>